--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF3764-F9CB-824D-BE96-A2F4775FD80F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BDA6CA-2D8B-EF42-AB32-F707A7D0A1A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="460" windowWidth="16780" windowHeight="26240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,13 +534,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A43" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D77" s="2">
         <v>2857313</v>
